--- a/US/data/BTS/TRPT/TVT_historical - Rural - Semiannual.xlsx
+++ b/US/data/BTS/TRPT/TVT_historical - Rural - Semiannual.xlsx
@@ -891,13 +891,13 @@
         <v>123902</v>
       </c>
       <c r="BL2" t="n">
-        <v>126151</v>
+        <v>125972</v>
       </c>
       <c r="BM2" t="n">
-        <v>142711</v>
+        <v>142710</v>
       </c>
       <c r="BN2" t="n">
-        <v>19020</v>
+        <v>60131</v>
       </c>
       <c r="BO2" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>184826</v>
       </c>
       <c r="BL3" t="n">
-        <v>186555</v>
+        <v>186408</v>
       </c>
       <c r="BM3" t="n">
         <v>204808</v>
       </c>
       <c r="BN3" t="n">
-        <v>28053</v>
+        <v>88193</v>
       </c>
       <c r="BO3" t="n">
         <v>0</v>
@@ -1301,13 +1301,13 @@
         <v>162248</v>
       </c>
       <c r="BL4" t="n">
-        <v>166408</v>
+        <v>166136</v>
       </c>
       <c r="BM4" t="n">
         <v>182893</v>
       </c>
       <c r="BN4" t="n">
-        <v>24755</v>
+        <v>77630</v>
       </c>
       <c r="BO4" t="n">
         <v>0</v>
@@ -1506,13 +1506,13 @@
         <v>470977</v>
       </c>
       <c r="BL5" t="n">
-        <v>479114</v>
+        <v>478516</v>
       </c>
       <c r="BM5" t="n">
-        <v>530411</v>
+        <v>530410</v>
       </c>
       <c r="BN5" t="n">
-        <v>71828</v>
+        <v>225954</v>
       </c>
       <c r="BO5" t="n">
         <v>0</v>

--- a/US/data/BTS/TRPT/TVT_historical - Rural - Semiannual.xlsx
+++ b/US/data/BTS/TRPT/TVT_historical - Rural - Semiannual.xlsx
@@ -897,7 +897,7 @@
         <v>142710</v>
       </c>
       <c r="BN2" t="n">
-        <v>60131</v>
+        <v>81005</v>
       </c>
       <c r="BO2" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>204808</v>
       </c>
       <c r="BN3" t="n">
-        <v>88193</v>
+        <v>119325</v>
       </c>
       <c r="BO3" t="n">
         <v>0</v>
@@ -1307,7 +1307,7 @@
         <v>182893</v>
       </c>
       <c r="BN4" t="n">
-        <v>77630</v>
+        <v>105572</v>
       </c>
       <c r="BO4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>530410</v>
       </c>
       <c r="BN5" t="n">
-        <v>225954</v>
+        <v>305902</v>
       </c>
       <c r="BO5" t="n">
         <v>0</v>
